--- a/biology/Botanique/Tillandsia_walteri/Tillandsia_walteri.xlsx
+++ b/biology/Botanique/Tillandsia_walteri/Tillandsia_walteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia walteri Mez est une plante de la famille des Bromeliaceae.
 Le terme walteri est une dédicace à un Mr Walter dont l'identité n'est pas précisée dans le protologue.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia walteri Mez, in Repert. Spec. Nov. Regni Veg. 3: 43 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Acaulis, foliis multis, densissime utriculatim rosulatis, cinereo-lepidotissimis; scapo manifesto; inflorescentia simplicissima, dense disticha, flabellata, bracteis inflatis utraque facie convexiuscula; rhachi floribus recipiendis bene excisa; bracteis amplissimis latissimisque sepala optime superantibus; floribus stricte erectis; sepalis subaequaliter liberis; petalis violaceis, quam stamina longioribus. »
-Type : leg. Weberbauer, n° 4319, 1904-07-10 ; "Peruvia, dept. Amazonas, in itinere a Chachapoyas meridiem versus, in locis apertis alt. 2400-2500 m" ; Holotypus B (Herb. Berol.)[1].
+Type : leg. Weberbauer, n° 4319, 1904-07-10 ; "Peruvia, dept. Amazonas, in itinere a Chachapoyas meridiem versus, in locis apertis alt. 2400-2500 m" ; Holotypus B (Herb. Berol.).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,9 +620,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; terrestre[1],[2], saxicole[2] ou épiphyte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; terrestre saxicole ou épiphyte.
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -634,16 +654,18 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Bolivie[2]
+ Bolivie
  Équateur
-Sud de l'Équateur[2]
+Sud de l'Équateur
  Pérou
-Amazonas[1]
-Nord du Pérou[2]
-Centre et sud du Pérou[3],[2]</t>
+Amazonas
+Nord du Pérou
+Centre et sud du Pérou,</t>
         </is>
       </c>
     </row>
@@ -671,9 +693,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culture aisée[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culture aisée.
 </t>
         </is>
       </c>
@@ -704,14 +728,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia walteri var. walteri
-(autonyme)
-Distribution : du sud de l'Équateur au nord du Pérou[2].
-Tillandsia walteri var. herrerae (Harms) Rauh
-Tillandsia walteri var. herrerae (Harms) Rauh, in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 21: 41 (1977)
+          <t>Tillandsia walteri var. walteri</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
+Distribution : du sud de l'Équateur au nord du Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_walteri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_walteri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia walteri var. herrerae (Harms) Rauh</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia walteri var. herrerae (Harms) Rauh, in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 21: 41 (1977)
 Synonymie :
 basionyme Tillandsia herrerae Harms
-Distribution : du centre et sud du Pérou à la Bolivie[2].
+Distribution : du centre et sud du Pérou à la Bolivie.
 </t>
         </is>
       </c>
